--- a/Shablon/V7-78.xlsx
+++ b/Shablon/V7-78.xlsx
@@ -14,27 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$212</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="262">
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="258">
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -878,11 +863,14 @@
   <si>
     <t>Протокол поверки №</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1232,37 +1220,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1280,12 +1251,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1595,7 +1583,7 @@
   <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,76 +1597,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="A7" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
     </row>
@@ -1695,17 +1675,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="39"/>
@@ -1713,13 +1693,13 @@
       <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -1729,11 +1709,11 @@
       <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -1743,11 +1723,11 @@
       <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="41"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -1757,13 +1737,13 @@
       <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -1773,13 +1753,13 @@
       <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -1789,13 +1769,13 @@
       <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -1816,94 +1796,94 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
@@ -1915,7 +1895,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -1935,17 +1915,17 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1957,7 +1937,7 @@
     </row>
     <row r="31" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1968,46 +1948,46 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="47"/>
+      <c r="A32" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="49"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>37</v>
+      <c r="A34" s="50" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D34" s="29">
         <v>9.9960000000000004</v>
@@ -2020,12 +2000,12 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D35" s="29">
         <v>49.994</v>
@@ -2038,12 +2018,12 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D36" s="29">
         <v>99.915000000000006</v>
@@ -2056,12 +2036,12 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D37" s="29">
         <v>-100.0085</v>
@@ -2074,14 +2054,14 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
-        <v>41</v>
+      <c r="A38" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D38" s="29">
         <v>9.9989999999999996E-2</v>
@@ -2094,12 +2074,12 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D39" s="29">
         <v>0.49997000000000003</v>
@@ -2112,12 +2092,12 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D40" s="29">
         <v>0.99995299999999998</v>
@@ -2130,12 +2110,12 @@
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D41" s="29">
         <v>-1.0000469999999999</v>
@@ -2148,14 +2128,14 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>45</v>
+      <c r="A42" s="50" t="s">
+        <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D42" s="29">
         <v>0.999915</v>
@@ -2168,12 +2148,12 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D43" s="29">
         <v>4.9998100000000001</v>
@@ -2186,12 +2166,12 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D44" s="29">
         <v>9.9995999999999992</v>
@@ -2204,12 +2184,12 @@
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D45" s="29">
         <v>-10.000400000000001</v>
@@ -2222,14 +2202,14 @@
       <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
-        <v>48</v>
+      <c r="A46" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D46" s="29">
         <v>9.9989500000000007</v>
@@ -2242,12 +2222,12 @@
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D47" s="29">
         <v>49.997149999999998</v>
@@ -2260,12 +2240,12 @@
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D48" s="29">
         <v>99.994900000000001</v>
@@ -2278,12 +2258,12 @@
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D49" s="29">
         <v>-100.0051</v>
@@ -2296,14 +2276,14 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
-        <v>51</v>
+      <c r="A50" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D50" s="29">
         <v>99.985500000000002</v>
@@ -2316,12 +2296,12 @@
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D51" s="29">
         <v>499.96749999999997</v>
@@ -2334,12 +2314,12 @@
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D52" s="29">
         <v>999.94500000000005</v>
@@ -2352,12 +2332,12 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D53" s="29">
         <v>-1000.0549999999999</v>
@@ -2390,73 +2370,73 @@
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
+      <c r="A56" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="46"/>
+      <c r="A58" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="50"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>38</v>
+      <c r="A60" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>33</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E60" s="31">
         <v>9.9250000000000007</v>
@@ -2468,13 +2448,13 @@
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E61" s="31">
         <v>9.9540000000000006</v>
@@ -2486,13 +2466,13 @@
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E62" s="31">
         <v>9.9380000000000006</v>
@@ -2504,13 +2484,13 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E63" s="31">
         <v>9.86</v>
@@ -2522,15 +2502,15 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46" t="s">
-        <v>39</v>
+      <c r="A64" s="50"/>
+      <c r="B64" s="50" t="s">
+        <v>34</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E64" s="31">
         <v>49.784999999999997</v>
@@ -2542,13 +2522,13 @@
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E65" s="31">
         <v>49.93</v>
@@ -2560,13 +2540,13 @@
       <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E66" s="31">
         <v>49.89</v>
@@ -2578,13 +2558,13 @@
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E67" s="31">
         <v>49.62</v>
@@ -2596,13 +2576,13 @@
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E68" s="31">
         <v>47.95</v>
@@ -2614,15 +2594,15 @@
       <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46" t="s">
-        <v>58</v>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E69" s="31">
         <v>99.61</v>
@@ -2634,13 +2614,13 @@
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E70" s="31">
         <v>99.9</v>
@@ -2652,13 +2632,13 @@
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="46"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E71" s="31">
         <v>99.83</v>
@@ -2670,13 +2650,13 @@
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E72" s="31">
         <v>99.32</v>
@@ -2688,13 +2668,13 @@
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E73" s="31">
         <v>95.95</v>
@@ -2706,17 +2686,17 @@
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>37</v>
+      <c r="A74" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>32</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E74" s="31">
         <v>99.62</v>
@@ -2728,13 +2708,13 @@
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E75" s="31">
         <v>99.91</v>
@@ -2746,13 +2726,13 @@
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="46"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E76" s="31">
         <v>99.83</v>
@@ -2764,13 +2744,13 @@
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E77" s="31">
         <v>99.32</v>
@@ -2782,15 +2762,15 @@
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="46" t="s">
-        <v>59</v>
+      <c r="A78" s="50"/>
+      <c r="B78" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E78" s="31">
         <v>498.22</v>
@@ -2802,13 +2782,13 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E79" s="31">
         <v>499.67</v>
@@ -2820,13 +2800,13 @@
       <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E80" s="31">
         <v>499.35</v>
@@ -2838,13 +2818,13 @@
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E81" s="31">
         <v>496.92</v>
@@ -2856,15 +2836,15 @@
       <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
-      <c r="B82" s="46" t="s">
-        <v>41</v>
+      <c r="A82" s="50"/>
+      <c r="B82" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E82" s="31">
         <v>0.99646999999999997</v>
@@ -2876,13 +2856,13 @@
       <c r="H82" s="21"/>
     </row>
     <row r="83" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
-      <c r="B83" s="46"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E83" s="31">
         <v>0.99936999999999998</v>
@@ -2894,13 +2874,13 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="46"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E84" s="31">
         <v>0.99875000000000003</v>
@@ -2912,13 +2892,13 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E85" s="31">
         <v>0.99392000000000003</v>
@@ -2930,13 +2910,13 @@
       <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="46"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E86" s="31">
         <v>0.95994999999999997</v>
@@ -2948,17 +2928,17 @@
       <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="46" t="s">
-        <v>41</v>
+      <c r="A87" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E87" s="31">
         <v>0.99350000000000005</v>
@@ -2970,13 +2950,13 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="46"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E88" s="31">
         <v>0.99639999999999995</v>
@@ -2988,13 +2968,13 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E89" s="31">
         <v>0.99380000000000002</v>
@@ -3006,13 +2986,13 @@
       <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E90" s="31">
         <v>0.98599999999999999</v>
@@ -3024,15 +3004,15 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
-      <c r="B91" s="46" t="s">
-        <v>46</v>
+      <c r="A91" s="50"/>
+      <c r="B91" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E91" s="31">
         <v>4.9794999999999998</v>
@@ -3044,13 +3024,13 @@
       <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8" s="22" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="46"/>
-      <c r="B92" s="46"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E92" s="31">
         <v>4.9939999999999998</v>
@@ -3062,13 +3042,13 @@
       <c r="H92" s="21"/>
     </row>
     <row r="93" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
-      <c r="B93" s="46"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E93" s="31">
         <v>4.9889999999999999</v>
@@ -3080,13 +3060,13 @@
       <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
-      <c r="B94" s="46"/>
+      <c r="A94" s="50"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E94" s="31">
         <v>4.9619999999999997</v>
@@ -3098,15 +3078,15 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46" t="s">
-        <v>45</v>
+      <c r="A95" s="50"/>
+      <c r="B95" s="50" t="s">
+        <v>40</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E95" s="31">
         <v>9.9619999999999997</v>
@@ -3118,13 +3098,13 @@
       <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
-      <c r="B96" s="46"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E96" s="31">
         <v>9.9909999999999997</v>
@@ -3136,13 +3116,13 @@
       <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="46"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E97" s="31">
         <v>9.9830000000000005</v>
@@ -3154,13 +3134,13 @@
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E98" s="31">
         <v>9.9320000000000004</v>
@@ -3172,17 +3152,17 @@
       <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" s="46" t="s">
-        <v>45</v>
+      <c r="A99" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>40</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E99" s="31">
         <v>9.9350000000000005</v>
@@ -3194,13 +3174,13 @@
       <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E100" s="31">
         <v>9.9640000000000004</v>
@@ -3212,13 +3192,13 @@
       <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="50"/>
       <c r="C101" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E101" s="31">
         <v>9.9380000000000006</v>
@@ -3230,13 +3210,13 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E102" s="31">
         <v>9.86</v>
@@ -3248,15 +3228,15 @@
       <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46" t="s">
-        <v>49</v>
+      <c r="A103" s="50"/>
+      <c r="B103" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E103" s="31">
         <v>49.795000000000002</v>
@@ -3268,13 +3248,13 @@
       <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E104" s="31">
         <v>49.94</v>
@@ -3286,13 +3266,13 @@
       <c r="H104" s="9"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
+      <c r="A105" s="50"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="31">
         <v>49.89</v>
@@ -3302,13 +3282,13 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
+      <c r="A106" s="50"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E106" s="31">
         <v>49.62</v>
@@ -3318,47 +3298,47 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" s="46"/>
+      <c r="A107" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="50"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="47"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F108" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>60</v>
-      </c>
       <c r="D109" s="32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E109" s="31">
         <v>99.62</v>
@@ -3368,13 +3348,13 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
+      <c r="A110" s="50"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E110" s="31">
         <v>99.91</v>
@@ -3384,13 +3364,13 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="46"/>
-      <c r="B111" s="46"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="50"/>
       <c r="C111" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D111" s="45" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E111" s="31">
         <v>99.83</v>
@@ -3400,13 +3380,13 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E112" s="31">
         <v>99.32</v>
@@ -3416,17 +3396,17 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B113" s="46" t="s">
-        <v>48</v>
+      <c r="A113" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E113" s="31">
         <v>99.35</v>
@@ -3436,13 +3416,13 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
+      <c r="A114" s="50"/>
+      <c r="B114" s="50"/>
       <c r="C114" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E114" s="31">
         <v>99.64</v>
@@ -3452,13 +3432,13 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
-      <c r="B115" s="46"/>
+      <c r="A115" s="50"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D115" s="45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E115" s="31">
         <v>99.38</v>
@@ -3468,13 +3448,13 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46"/>
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D116" s="45" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E116" s="31">
         <v>99.35</v>
@@ -3484,15 +3464,15 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="B117" s="46" t="s">
-        <v>52</v>
+      <c r="A117" s="50"/>
+      <c r="B117" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E117" s="31">
         <v>497.95</v>
@@ -3502,13 +3482,13 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="46"/>
-      <c r="B118" s="46"/>
+      <c r="A118" s="50"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D118" s="45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E118" s="31">
         <v>499.4</v>
@@ -3518,13 +3498,13 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
-      <c r="B119" s="46"/>
+      <c r="A119" s="50"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D119" s="45" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E119" s="31">
         <v>498.9</v>
@@ -3534,13 +3514,13 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="46"/>
+      <c r="A120" s="50"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E120" s="31">
         <v>496.2</v>
@@ -3550,15 +3530,15 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
-      <c r="B121" s="46" t="s">
-        <v>61</v>
+      <c r="A121" s="50"/>
+      <c r="B121" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E121" s="31">
         <v>747.07500000000005</v>
@@ -3568,13 +3548,13 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="46"/>
+      <c r="A122" s="50"/>
+      <c r="B122" s="50"/>
       <c r="C122" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D122" s="45" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E122" s="31">
         <v>749.25</v>
@@ -3584,13 +3564,13 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="46"/>
+      <c r="A123" s="50"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D123" s="45" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E123" s="31">
         <v>748.8</v>
@@ -3600,13 +3580,13 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
-      <c r="B124" s="46"/>
+      <c r="A124" s="50"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E124" s="31">
         <v>744.7</v>
@@ -3616,65 +3596,65 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126" s="57"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
+      <c r="A126" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="51"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="57"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="57"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="57"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="46"/>
-      <c r="C128" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" s="53"/>
+      <c r="A128" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="56"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="46"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
+      <c r="A129" s="50"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
       <c r="F129" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G129" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="53"/>
-      <c r="C130" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
+      <c r="A130" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" s="56"/>
+      <c r="C130" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="48"/>
+      <c r="E130" s="48"/>
       <c r="F130" s="31">
         <v>39.995989999999999</v>
       </c>
@@ -3683,15 +3663,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" s="53"/>
-      <c r="C131" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
+      <c r="A131" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="56"/>
+      <c r="C131" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48"/>
       <c r="F131" s="31">
         <v>0.99989899999999998</v>
       </c>
@@ -3700,15 +3680,15 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
+      <c r="A132" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="56"/>
+      <c r="C132" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" s="48"/>
+      <c r="E132" s="48"/>
       <c r="F132" s="31">
         <v>9.9989899999999992</v>
       </c>
@@ -3717,15 +3697,15 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B133" s="53"/>
-      <c r="C133" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
+      <c r="A133" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B133" s="56"/>
+      <c r="C133" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D133" s="48"/>
+      <c r="E133" s="48"/>
       <c r="F133" s="31">
         <v>99.989900000000006</v>
       </c>
@@ -3734,15 +3714,15 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B134" s="53"/>
-      <c r="C134" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
+      <c r="A134" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="56"/>
+      <c r="C134" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" s="48"/>
+      <c r="E134" s="48"/>
       <c r="F134" s="31">
         <v>299.9699</v>
       </c>
@@ -3752,48 +3732,48 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B137" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C137" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D137" s="47"/>
-      <c r="E137" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F137" s="46"/>
+      <c r="A137" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="49"/>
+      <c r="E137" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="50"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
+      <c r="A138" s="49"/>
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49"/>
       <c r="E138" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="46" t="s">
-        <v>66</v>
+      <c r="A139" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="D139" s="54"/>
+        <v>62</v>
+      </c>
+      <c r="C139" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D139" s="48"/>
       <c r="E139" s="29">
         <v>0.99929999999999997</v>
       </c>
@@ -3802,14 +3782,14 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="46"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C140" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="D140" s="54"/>
+        <v>63</v>
+      </c>
+      <c r="C140" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140" s="48"/>
       <c r="E140" s="29">
         <v>4.9973000000000001</v>
       </c>
@@ -3818,14 +3798,14 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="46"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C141" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="D141" s="54"/>
+        <v>61</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" s="48"/>
       <c r="E141" s="29">
         <v>9.9947999999999997</v>
       </c>
@@ -3834,16 +3814,16 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="46" t="s">
-        <v>69</v>
+      <c r="A142" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C142" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="D142" s="54"/>
+        <v>61</v>
+      </c>
+      <c r="C142" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D142" s="48"/>
       <c r="E142" s="29">
         <v>9.9945000000000004</v>
       </c>
@@ -3852,14 +3832,14 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="46"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="D143" s="54"/>
+        <v>65</v>
+      </c>
+      <c r="C143" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D143" s="48"/>
       <c r="E143" s="29">
         <v>49.974499999999999</v>
       </c>
@@ -3868,14 +3848,14 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="46"/>
+      <c r="A144" s="50"/>
       <c r="B144" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C144" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="D144" s="54"/>
+        <v>64</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D144" s="48"/>
       <c r="E144" s="29">
         <v>99.9495</v>
       </c>
@@ -3884,16 +3864,16 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="46" t="s">
-        <v>71</v>
+      <c r="A145" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C145" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="D145" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="C145" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D145" s="48"/>
       <c r="E145" s="29">
         <v>9.9890000000000007E-2</v>
       </c>
@@ -3902,14 +3882,14 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="46"/>
+      <c r="A146" s="50"/>
       <c r="B146" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C146" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="D146" s="54"/>
+        <v>68</v>
+      </c>
+      <c r="C146" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D146" s="48"/>
       <c r="E146" s="29">
         <v>0.49948999999999999</v>
       </c>
@@ -3918,14 +3898,14 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="46"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C147" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="D147" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C147" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" s="48"/>
       <c r="E147" s="29">
         <v>0.99899000000000004</v>
       </c>
@@ -3934,16 +3914,16 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="46" t="s">
-        <v>74</v>
+      <c r="A148" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C148" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="D148" s="54"/>
+        <v>70</v>
+      </c>
+      <c r="C148" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D148" s="48"/>
       <c r="E148" s="29">
         <v>0.29943999999999998</v>
       </c>
@@ -3952,14 +3932,14 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="46"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C149" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="D149" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C149" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D149" s="48"/>
       <c r="E149" s="29">
         <v>0.99860000000000004</v>
       </c>
@@ -3968,14 +3948,14 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="46"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C150" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="D150" s="54"/>
+        <v>71</v>
+      </c>
+      <c r="C150" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D150" s="48"/>
       <c r="E150" s="29">
         <v>1.9974000000000001</v>
       </c>
@@ -3984,73 +3964,73 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="57"/>
-      <c r="F152" s="57"/>
-      <c r="G152" s="57"/>
-      <c r="H152" s="57"/>
+      <c r="A152" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="51"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="57"/>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="57"/>
+      <c r="A153" s="51"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
     </row>
     <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B154" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C154" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E154" s="47"/>
-      <c r="F154" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G154" s="46"/>
+      <c r="A154" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="49"/>
+      <c r="F154" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" s="50"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
-      <c r="C155" s="46"/>
-      <c r="D155" s="47"/>
-      <c r="E155" s="47"/>
+      <c r="A155" s="49"/>
+      <c r="B155" s="49"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="49"/>
+      <c r="E155" s="49"/>
       <c r="F155" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G155" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="46" t="s">
-        <v>71</v>
+      <c r="A156" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C156" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D156" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="E156" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="C156" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D156" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E156" s="48"/>
       <c r="F156" s="29">
         <v>9.5699999999999993E-2</v>
       </c>
@@ -4059,15 +4039,15 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="46"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C157" s="46"/>
-      <c r="D157" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="E157" s="54"/>
+        <v>68</v>
+      </c>
+      <c r="C157" s="50"/>
+      <c r="D157" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="E157" s="48"/>
       <c r="F157" s="29">
         <v>0.4945</v>
       </c>
@@ -4076,15 +4056,15 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="46"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C158" s="46"/>
-      <c r="D158" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="E158" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C158" s="50"/>
+      <c r="D158" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E158" s="48"/>
       <c r="F158" s="29">
         <v>0.99299999999999999</v>
       </c>
@@ -4093,17 +4073,17 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="46"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D159" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="E159" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="C159" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D159" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E159" s="48"/>
       <c r="F159" s="29">
         <v>9.5899999999999999E-2</v>
       </c>
@@ -4112,15 +4092,15 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="46"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C160" s="46"/>
-      <c r="D160" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="E160" s="54"/>
+        <v>68</v>
+      </c>
+      <c r="C160" s="50"/>
+      <c r="D160" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E160" s="48"/>
       <c r="F160" s="29">
         <v>0.4955</v>
       </c>
@@ -4129,15 +4109,15 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="46"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C161" s="46"/>
-      <c r="D161" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="E161" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C161" s="50"/>
+      <c r="D161" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E161" s="48"/>
       <c r="F161" s="29">
         <v>0.995</v>
       </c>
@@ -4146,17 +4126,17 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="46"/>
+      <c r="A162" s="50"/>
       <c r="B162" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C162" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D162" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="E162" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="C162" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D162" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E162" s="48"/>
       <c r="F162" s="29">
         <v>9.5899999999999999E-2</v>
       </c>
@@ -4165,15 +4145,15 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="46"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C163" s="46"/>
-      <c r="D163" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="E163" s="54"/>
+        <v>68</v>
+      </c>
+      <c r="C163" s="50"/>
+      <c r="D163" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E163" s="48"/>
       <c r="F163" s="29">
         <v>0.4955</v>
       </c>
@@ -4182,15 +4162,15 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="46"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C164" s="46"/>
-      <c r="D164" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="E164" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C164" s="50"/>
+      <c r="D164" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E164" s="48"/>
       <c r="F164" s="29">
         <v>0.995</v>
       </c>
@@ -4199,19 +4179,19 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="46" t="s">
-        <v>74</v>
+      <c r="A165" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C165" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D165" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="E165" s="54"/>
+        <v>70</v>
+      </c>
+      <c r="C165" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D165" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="E165" s="48"/>
       <c r="F165" s="29">
         <v>0.23895</v>
       </c>
@@ -4220,15 +4200,15 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="46"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C166" s="46"/>
-      <c r="D166" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E166" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C166" s="50"/>
+      <c r="D166" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E166" s="48"/>
       <c r="F166" s="29">
         <v>0.9365</v>
       </c>
@@ -4237,15 +4217,15 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="46"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" s="46"/>
-      <c r="D167" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="E167" s="54"/>
+        <v>131</v>
+      </c>
+      <c r="C167" s="50"/>
+      <c r="D167" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E167" s="48"/>
       <c r="F167" s="29">
         <v>2.4312499999999999</v>
       </c>
@@ -4254,17 +4234,17 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="46"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C168" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D168" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="E168" s="54"/>
+        <v>70</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D168" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E168" s="48"/>
       <c r="F168" s="29">
         <v>0.23955000000000001</v>
       </c>
@@ -4273,15 +4253,15 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="46"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C169" s="46"/>
-      <c r="D169" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="E169" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C169" s="50"/>
+      <c r="D169" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="E169" s="48"/>
       <c r="F169" s="29">
         <v>0.9385</v>
       </c>
@@ -4290,15 +4270,15 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="46"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="46"/>
-      <c r="D170" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="E170" s="54"/>
+        <v>131</v>
+      </c>
+      <c r="C170" s="50"/>
+      <c r="D170" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="E170" s="48"/>
       <c r="F170" s="29">
         <v>2.4362499999999998</v>
       </c>
@@ -4307,17 +4287,17 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="46"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C171" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C171" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D171" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="E171" s="54"/>
+      <c r="D171" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E171" s="48"/>
       <c r="F171" s="29">
         <v>0.23955000000000001</v>
       </c>
@@ -4326,15 +4306,15 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="46"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C172" s="46"/>
-      <c r="D172" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="E172" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="C172" s="50"/>
+      <c r="D172" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E172" s="48"/>
       <c r="F172" s="29">
         <v>0.9385</v>
       </c>
@@ -4343,15 +4323,15 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="46"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C173" s="46"/>
-      <c r="D173" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E173" s="54"/>
+        <v>131</v>
+      </c>
+      <c r="C173" s="50"/>
+      <c r="D173" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E173" s="48"/>
       <c r="F173" s="29">
         <v>2.4362499999999998</v>
       </c>
@@ -4360,66 +4340,66 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="57"/>
-      <c r="H175" s="57"/>
+      <c r="A175" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B175" s="51"/>
+      <c r="C175" s="51"/>
+      <c r="D175" s="51"/>
+      <c r="E175" s="51"/>
+      <c r="F175" s="51"/>
+      <c r="G175" s="51"/>
+      <c r="H175" s="51"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="57"/>
-      <c r="B176" s="57"/>
-      <c r="C176" s="57"/>
-      <c r="D176" s="57"/>
-      <c r="E176" s="57"/>
-      <c r="F176" s="57"/>
-      <c r="G176" s="57"/>
-      <c r="H176" s="57"/>
+      <c r="A176" s="51"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="51"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="51"/>
+      <c r="G176" s="51"/>
+      <c r="H176" s="51"/>
     </row>
     <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B177" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C177" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D177" s="47"/>
-      <c r="E177" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F177" s="46"/>
+      <c r="A177" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B177" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="49"/>
+      <c r="E177" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="50"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
-      <c r="C178" s="47"/>
-      <c r="D178" s="47"/>
+      <c r="A178" s="49"/>
+      <c r="B178" s="49"/>
+      <c r="C178" s="49"/>
+      <c r="D178" s="49"/>
       <c r="E178" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F178" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="46" t="s">
-        <v>83</v>
+      <c r="A179" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C179" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D179" s="54"/>
+        <v>132</v>
+      </c>
+      <c r="C179" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D179" s="48"/>
       <c r="E179" s="29">
         <v>0.99590000000000001</v>
       </c>
@@ -4428,14 +4408,14 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="46"/>
+      <c r="A180" s="50"/>
       <c r="B180" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C180" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D180" s="54"/>
+        <v>133</v>
+      </c>
+      <c r="C180" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D180" s="48"/>
       <c r="E180" s="29">
         <v>9.9949999999999992</v>
       </c>
@@ -4444,14 +4424,14 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="46"/>
+      <c r="A181" s="50"/>
       <c r="B181" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C181" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D181" s="54"/>
+        <v>134</v>
+      </c>
+      <c r="C181" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D181" s="48"/>
       <c r="E181" s="29">
         <v>49.991</v>
       </c>
@@ -4460,14 +4440,14 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="46"/>
+      <c r="A182" s="50"/>
       <c r="B182" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C182" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D182" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="C182" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D182" s="48"/>
       <c r="E182" s="29">
         <v>99.986000000000004</v>
       </c>
@@ -4476,66 +4456,66 @@
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="57" t="s">
+      <c r="A184" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" s="51"/>
+      <c r="C184" s="51"/>
+      <c r="D184" s="51"/>
+      <c r="E184" s="51"/>
+      <c r="F184" s="51"/>
+      <c r="G184" s="51"/>
+      <c r="H184" s="51"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="51"/>
+      <c r="B185" s="51"/>
+      <c r="C185" s="51"/>
+      <c r="D185" s="51"/>
+      <c r="E185" s="51"/>
+      <c r="F185" s="51"/>
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+    </row>
+    <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="49"/>
+      <c r="E186" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="50"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="49"/>
+      <c r="B187" s="49"/>
+      <c r="C187" s="49"/>
+      <c r="D187" s="49"/>
+      <c r="E187" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B184" s="57"/>
-      <c r="C184" s="57"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="57"/>
-      <c r="G184" s="57"/>
-      <c r="H184" s="57"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="57"/>
-      <c r="B185" s="57"/>
-      <c r="C185" s="57"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="57"/>
-      <c r="F185" s="57"/>
-      <c r="G185" s="57"/>
-      <c r="H185" s="57"/>
-    </row>
-    <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B186" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C186" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D186" s="47"/>
-      <c r="E186" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F186" s="46"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
-      <c r="C187" s="47"/>
-      <c r="D187" s="47"/>
-      <c r="E187" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F187" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B188" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C188" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D188" s="54"/>
+      <c r="D188" s="48"/>
       <c r="E188" s="29">
         <v>9.9890000000000007E-2</v>
       </c>
@@ -4544,14 +4524,14 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="46"/>
+      <c r="A189" s="50"/>
       <c r="B189" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C189" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D189" s="54"/>
+        <v>136</v>
+      </c>
+      <c r="C189" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D189" s="48"/>
       <c r="E189" s="29">
         <v>0.49985000000000002</v>
       </c>
@@ -4560,14 +4540,14 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="46"/>
+      <c r="A190" s="50"/>
       <c r="B190" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C190" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D190" s="54"/>
+        <v>79</v>
+      </c>
+      <c r="C190" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D190" s="48"/>
       <c r="E190" s="29">
         <v>0.99980000000000002</v>
       </c>
@@ -4576,16 +4556,16 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="46" t="s">
-        <v>85</v>
+      <c r="A191" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="B191" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C191" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D191" s="54"/>
+        <v>79</v>
+      </c>
+      <c r="C191" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D191" s="48"/>
       <c r="E191" s="29">
         <v>0.99890000000000001</v>
       </c>
@@ -4594,14 +4574,14 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="46"/>
+      <c r="A192" s="50"/>
       <c r="B192" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C192" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D192" s="54"/>
+        <v>137</v>
+      </c>
+      <c r="C192" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D192" s="48"/>
       <c r="E192" s="29">
         <v>4.9984999999999999</v>
       </c>
@@ -4610,14 +4590,14 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="46"/>
+      <c r="A193" s="50"/>
       <c r="B193" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C193" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="D193" s="54"/>
+        <v>80</v>
+      </c>
+      <c r="C193" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D193" s="48"/>
       <c r="E193" s="29">
         <v>9.9979999999999993</v>
       </c>
@@ -4626,16 +4606,16 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="46" t="s">
-        <v>86</v>
+      <c r="A194" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="B194" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C194" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D194" s="54"/>
+        <v>80</v>
+      </c>
+      <c r="C194" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D194" s="48"/>
       <c r="E194" s="29">
         <v>9.9890000000000008</v>
       </c>
@@ -4644,14 +4624,14 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="46"/>
+      <c r="A195" s="50"/>
       <c r="B195" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C195" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D195" s="54"/>
+        <v>138</v>
+      </c>
+      <c r="C195" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D195" s="48"/>
       <c r="E195" s="29">
         <v>49.984999999999999</v>
       </c>
@@ -4660,14 +4640,14 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="46"/>
+      <c r="A196" s="50"/>
       <c r="B196" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C196" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D196" s="54"/>
+        <v>81</v>
+      </c>
+      <c r="C196" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D196" s="48"/>
       <c r="E196" s="29">
         <v>99.98</v>
       </c>
@@ -4676,16 +4656,16 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="46" t="s">
-        <v>87</v>
+      <c r="A197" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="B197" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C197" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D197" s="54"/>
+        <v>139</v>
+      </c>
+      <c r="C197" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D197" s="48"/>
       <c r="E197" s="29">
         <v>9.9979999999999999E-2</v>
       </c>
@@ -4694,14 +4674,14 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="46"/>
+      <c r="A198" s="50"/>
       <c r="B198" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C198" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D198" s="54"/>
+        <v>140</v>
+      </c>
+      <c r="C198" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D198" s="48"/>
       <c r="E198" s="29">
         <v>0.49994</v>
       </c>
@@ -4710,14 +4690,14 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="46"/>
+      <c r="A199" s="50"/>
       <c r="B199" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C199" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D199" s="54"/>
+        <v>82</v>
+      </c>
+      <c r="C199" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D199" s="48"/>
       <c r="E199" s="29">
         <v>0.99988999999999995</v>
       </c>
@@ -4726,16 +4706,16 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="46" t="s">
-        <v>88</v>
+      <c r="A200" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="B200" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C200" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D200" s="54"/>
+        <v>82</v>
+      </c>
+      <c r="C200" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D200" s="48"/>
       <c r="E200" s="29">
         <v>0.99950000000000006</v>
       </c>
@@ -4744,14 +4724,14 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="46"/>
+      <c r="A201" s="50"/>
       <c r="B201" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C201" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D201" s="54"/>
+        <v>141</v>
+      </c>
+      <c r="C201" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D201" s="48"/>
       <c r="E201" s="29">
         <v>4.9978999999999996</v>
       </c>
@@ -4760,14 +4740,14 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="46"/>
+      <c r="A202" s="50"/>
       <c r="B202" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C202" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D202" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="C202" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D202" s="48"/>
       <c r="E202" s="29">
         <v>9.9959000000000007</v>
       </c>
@@ -4776,16 +4756,16 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="46" t="s">
-        <v>89</v>
+      <c r="A203" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="B203" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C203" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D203" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D203" s="48"/>
       <c r="E203" s="29">
         <v>9.91</v>
       </c>
@@ -4794,14 +4774,14 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="46"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C204" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D204" s="54"/>
+        <v>142</v>
+      </c>
+      <c r="C204" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D204" s="48"/>
       <c r="E204" s="29">
         <v>49.59</v>
       </c>
@@ -4810,14 +4790,14 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="46"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C205" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D205" s="54"/>
+        <v>84</v>
+      </c>
+      <c r="C205" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D205" s="48"/>
       <c r="E205" s="29">
         <v>99.19</v>
       </c>
@@ -4826,20 +4806,20 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208" s="58"/>
+      <c r="A208" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="52"/>
       <c r="C208" s="12"/>
       <c r="D208" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E208" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="F208" s="60"/>
+        <v>4</v>
+      </c>
+      <c r="E208" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F208" s="54"/>
       <c r="G208" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H208" s="14"/>
       <c r="I208" s="3"/>
@@ -4848,18 +4828,175 @@
       <c r="I209" s="3"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="58"/>
-      <c r="C210" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D210" s="61"/>
+      <c r="A210" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" s="52"/>
+      <c r="C210" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D210" s="55"/>
       <c r="I210" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A60:A73"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A56:G57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A74:A86"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A128:B129"/>
+    <mergeCell ref="C128:E129"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A126:H127"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A113:A124"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="C137:D138"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="D154:E155"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C186:D187"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A175:H176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A184:H185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C199:D199"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
@@ -4884,163 +5021,6 @@
     <mergeCell ref="A154:A155"/>
     <mergeCell ref="B154:B155"/>
     <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A184:H185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C186:D187"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A175:H176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="D154:E155"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="C137:D138"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="A128:B129"/>
-    <mergeCell ref="C128:E129"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A126:H127"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A113:A124"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A74:A86"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A60:A73"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A56:G57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B99:B102"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
